--- a/SimulationData/DataVisualisation.xlsx
+++ b/SimulationData/DataVisualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalRepos\EcosystemSimulation\SimulationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DC6D8-09DE-4737-80D8-24077A9BD6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FD0DD7-96FF-4DB6-9F90-7391E890BC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodAbundance" sheetId="7" r:id="rId1"/>
@@ -17681,7 +17681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC25A82-5C76-47EC-9BFB-54044D622318}">
   <dimension ref="A1:G658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
@@ -32841,7 +32841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E55FF-17BD-423A-87B7-0E01978DF017}">
   <dimension ref="A1:G660"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
